--- a/文档/项目组内文档/项目进度把控表.xlsx
+++ b/文档/项目组内文档/项目进度把控表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>照明灯电子商务公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邓家要（组长）、郭富华、崔碧霞、吴雅茵、吴雪梅、朱洁莹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录，注册，库房管理（入库单， 出库单， 库存余额表），产品管理（产品库存， 产品成本， 产品属性管理），订单管理（下单账户， 所属员工， 订单成本， 订单成本费用， 订单总支付金额， 订单商品，手动增加订单），财务管理（记录出款和入款， 计算一段时间的利润），客户管理（客户基本信息， 客户VIP登录管理， 客户订单管理， 转移客户）， 员工管理（用户信息， 用户权限， 开通新客户， 销售额管理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品库存的首页的页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +119,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>侧边栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓家要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓家要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readme首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常,echart表的引用需要安装npm install echart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常,路由配置了解不透侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包屑导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品属性管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔碧霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔碧霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔碧霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录出款和入款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算一段时间的利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱洁莹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱洁莹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户订单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职新员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工销售额管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭富华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭富华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭富华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴雅茵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴雅茵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴雅茵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴雅茵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴雪梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴雪梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴雪梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建路由配置框架、订单报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首耀照明后台管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录，注册，库房管理（入库单， 出库单， 库存分配、库存余额表），产品管理（产品库存， 产品成本， 产品属性管理），订单管理（下单账户， 所属员工， 订单成本， 订单成本费用， 订单总支付金额， 订单商品，手动增加订单），财务管理（记录出款和入款， 计算一段时间的利润），客户管理（客户基本信息， 客户VIP登录管理， 客户订单管理， 转移客户）， 员工管理（用户信息， 用户权限， 开通新客户， 销售额管理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>展示发货信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,189 +319,6 @@
   </si>
   <si>
     <t>导航栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧边栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓家要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓家要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>readme首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常,echart表的引用需要安装npm install echart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常,路由配置了解不透侧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包屑导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭建路由配置框架、订单报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品属性管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔碧霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔碧霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔碧霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录出款和入款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算一段时间的利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱洁莹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱洁莹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户订单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转移客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职新员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工销售额管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭富华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭富华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭富华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴雅茵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴雅茵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴雅茵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴雅茵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴雪梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴雪梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴雪梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,6 +337,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -466,6 +467,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -487,8 +490,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -792,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,109 +813,109 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
@@ -935,14 +936,14 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
@@ -966,10 +967,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3">
         <v>42948</v>
@@ -978,18 +979,18 @@
         <v>42948</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>42949</v>
@@ -998,18 +999,18 @@
         <v>42949</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>42950</v>
@@ -1018,18 +1019,18 @@
         <v>42950</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
         <v>42951</v>
@@ -1038,18 +1039,18 @@
         <v>42951</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
         <v>42951</v>
@@ -1058,18 +1059,18 @@
         <v>42951</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3">
         <v>42952</v>
@@ -1078,18 +1079,18 @@
         <v>42952</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
         <v>42954</v>
@@ -1098,18 +1099,18 @@
         <v>42954</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3">
         <v>42954</v>
@@ -1118,18 +1119,18 @@
         <v>42954</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3">
         <v>42954</v>
@@ -1138,10 +1139,10 @@
         <v>42954</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -1154,10 +1155,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3">
         <v>42948</v>
@@ -1166,18 +1167,18 @@
         <v>42948</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3">
         <v>42949</v>
@@ -1186,18 +1187,18 @@
         <v>42951</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3">
         <v>42953</v>
@@ -1206,18 +1207,18 @@
         <v>42954</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3">
         <v>42955</v>
@@ -1226,7 +1227,7 @@
         <v>42957</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F27" s="5"/>
     </row>
@@ -1240,10 +1241,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3">
         <v>42948</v>
@@ -1252,18 +1253,18 @@
         <v>42948</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3">
         <v>42949</v>
@@ -1272,18 +1273,18 @@
         <v>42951</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3">
         <v>42953</v>
@@ -1292,18 +1293,18 @@
         <v>42954</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3">
         <v>42955</v>
@@ -1312,7 +1313,7 @@
         <v>42957</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -1322,16 +1323,16 @@
       <c r="C33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C34" s="3">
         <v>42948</v>
@@ -1340,18 +1341,18 @@
         <v>42948</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C35" s="3">
         <v>42949</v>
@@ -1360,18 +1361,18 @@
         <v>42950</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3">
         <v>42951</v>
@@ -1380,18 +1381,18 @@
         <v>42951</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="C37" s="3">
         <v>42953</v>
@@ -1400,18 +1401,18 @@
         <v>42954</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3">
         <v>42955</v>
@@ -1420,7 +1421,7 @@
         <v>42957</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F38" s="5"/>
     </row>
@@ -1434,10 +1435,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3">
         <v>42948</v>
@@ -1446,18 +1447,18 @@
         <v>42948</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3">
         <v>42949</v>
@@ -1466,18 +1467,18 @@
         <v>42950</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3">
         <v>42951</v>
@@ -1486,18 +1487,18 @@
         <v>42951</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C43" s="3">
         <v>42953</v>
@@ -1506,10 +1507,10 @@
         <v>42954</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -1530,10 +1531,10 @@
     </row>
     <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C46" s="3">
         <v>42948</v>
@@ -1542,47 +1543,47 @@
         <v>42948</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="20">
+        <v>53</v>
+      </c>
+      <c r="C47" s="13">
         <v>42949</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="14">
         <v>42954</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="20">
+        <v>53</v>
+      </c>
+      <c r="C48" s="13">
         <v>42955</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="14">
         <v>42957</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F48" s="2"/>
     </row>

--- a/文档/项目组内文档/项目进度把控表.xlsx
+++ b/文档/项目组内文档/项目进度把控表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>项目名称</t>
   </si>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>导航栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1229,7 +1233,9 @@
       <c r="E27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -1315,16 +1321,16 @@
       <c r="E32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="3"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1423,7 +1429,9 @@
       <c r="E38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
@@ -1585,7 +1593,9 @@
       <c r="E48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>

--- a/文档/项目组内文档/项目进度把控表.xlsx
+++ b/文档/项目组内文档/项目进度把控表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\Organizations\bright-night-us\文档\项目组内文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="10320"/>
   </bookViews>
@@ -329,7 +334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,6 +509,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -551,7 +559,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,7 +594,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
